--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -55,109 +55,121 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>ze</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>tea</t>
   </si>
   <si>
     <t>kitchen</t>
@@ -166,58 +178,46 @@
     <t>cook</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -650,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2635658914728682</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,10 +753,10 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8498452012383901</v>
+        <v>0.8452012383900929</v>
       </c>
       <c r="L6">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M6">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +828,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +880,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.6883116883116883</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -906,13 +906,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -932,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6610169491525424</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L12">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -958,13 +958,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6444444444444445</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -984,13 +984,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1010,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.640625</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1036,13 +1036,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6195826645264848</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>474</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1062,13 +1062,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6114285714285714</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1088,13 +1088,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6029411764705882</v>
+        <v>0.6163723916532905</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1114,13 +1114,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.609375</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1166,13 +1166,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5915492957746479</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1192,13 +1192,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1218,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1244,13 +1244,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1270,13 +1270,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5213675213675214</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,13 +1296,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5087719298245614</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1322,13 +1322,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4962406015037594</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1348,13 +1348,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4939759036144578</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1374,13 +1374,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4850299401197605</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1400,13 +1400,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1426,13 +1426,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.43</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1452,13 +1452,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4098360655737705</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1478,13 +1478,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3947368421052632</v>
+        <v>0.37</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1504,13 +1504,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3734939759036144</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1530,13 +1530,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3676470588235294</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L35">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>258</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1556,13 +1556,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3268482490272374</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="M36">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>173</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1582,13 +1582,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2792792792792793</v>
+        <v>0.2996108949416342</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1608,13 +1608,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2781954887218045</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1634,13 +1634,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2726027397260274</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L39">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M39">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1660,13 +1660,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2631578947368421</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>154</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1686,13 +1686,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.25</v>
+        <v>0.2486544671689989</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>81</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1712,13 +1712,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2446043165467626</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1738,13 +1738,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.22497308934338</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L43">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>720</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1764,13 +1764,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2037617554858934</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>254</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1790,13 +1790,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.174496644295302</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1816,13 +1816,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1721854304635762</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L46">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M46">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1842,13 +1842,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1560102301790281</v>
+        <v>0.1786833855799373</v>
       </c>
       <c r="L47">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="M47">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>660</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1868,13 +1868,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1456953642384106</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1240875912408759</v>
+        <v>0.1624040920716112</v>
       </c>
       <c r="L49">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="M49">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>360</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1237113402061856</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>255</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1946,25 +1946,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1070110701107011</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>242</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1972,25 +1972,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1054054054054054</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>331</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1998,13 +1998,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.09772727272727273</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L53">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>397</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2024,13 +2024,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.08591885441527446</v>
+        <v>0.08991228070175439</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2050,13 +2050,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.08518518518518518</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2076,7 +2076,7 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.07894736842105263</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L56">
         <v>36</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2102,25 +2102,25 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.05738880918220947</v>
+        <v>0.075</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>657</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2128,13 +2128,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.04428044280442804</v>
+        <v>0.05130597014925373</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>518</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2154,25 +2154,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.04295051353874883</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1025</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2180,25 +2180,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.02076124567474048</v>
+        <v>0.02337662337662338</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
